--- a/teaching/traditional_assets/database/data/thailand/thailand_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/thailand/thailand_insurance_life.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0449</v>
+        <v>-0.0126</v>
       </c>
       <c r="E2">
-        <v>0.296</v>
+        <v>-0.125</v>
       </c>
       <c r="G2">
-        <v>0.1131980335308206</v>
+        <v>0.1122022427178024</v>
       </c>
       <c r="H2">
-        <v>0.1131980335308206</v>
+        <v>0.1122022427178024</v>
       </c>
       <c r="I2">
-        <v>0.1116112223485937</v>
+        <v>0.04089725021203806</v>
       </c>
       <c r="J2">
-        <v>0.09268897528734124</v>
+        <v>0.03642925303739851</v>
       </c>
       <c r="K2">
-        <v>154.2</v>
+        <v>66.5</v>
       </c>
       <c r="L2">
-        <v>0.09718895751922349</v>
+        <v>0.04412447747329308</v>
       </c>
       <c r="M2">
-        <v>40.1</v>
+        <v>17.3</v>
       </c>
       <c r="N2">
-        <v>0.03398017117193459</v>
+        <v>0.01448304730012558</v>
       </c>
       <c r="O2">
-        <v>0.2600518806744488</v>
+        <v>0.2601503759398496</v>
       </c>
       <c r="P2">
-        <v>40.1</v>
+        <v>17.3</v>
       </c>
       <c r="Q2">
-        <v>0.03398017117193459</v>
+        <v>0.01448304730012558</v>
       </c>
       <c r="R2">
-        <v>0.2600518806744488</v>
+        <v>0.2601503759398496</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,55 +639,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>312.8</v>
+        <v>288.9</v>
       </c>
       <c r="V2">
-        <v>0.265062282857385</v>
+        <v>0.2418585182084554</v>
       </c>
       <c r="W2">
-        <v>0.1232712447038132</v>
+        <v>0.04498714652956298</v>
       </c>
       <c r="X2">
-        <v>0.08553709268922421</v>
+        <v>0.06980178383840767</v>
       </c>
       <c r="Y2">
-        <v>0.03773415201458902</v>
+        <v>-0.02481463730884469</v>
       </c>
       <c r="Z2">
-        <v>1.41681565117809</v>
+        <v>1.292026912011738</v>
       </c>
       <c r="AA2">
-        <v>0.1313231908787643</v>
+        <v>0.04706757530880423</v>
       </c>
       <c r="AB2">
-        <v>0.08544913453434848</v>
+        <v>0.06975761895035065</v>
       </c>
       <c r="AC2">
-        <v>0.04587405634441581</v>
+        <v>-0.02269004364154643</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>1.988173108606479</v>
+        <v>1.223771027187246</v>
       </c>
       <c r="AF2">
-        <v>1.988173108606479</v>
+        <v>1.223771027187246</v>
       </c>
       <c r="AG2">
-        <v>-310.8118268913935</v>
+        <v>-287.6762289728127</v>
       </c>
       <c r="AH2">
-        <v>0.001681916081926498</v>
+        <v>0.001023456300560091</v>
       </c>
       <c r="AI2">
-        <v>0.001342101378084053</v>
+        <v>0.0009112736356220706</v>
       </c>
       <c r="AJ2">
-        <v>-0.3575475158944347</v>
+        <v>-0.3172349889405226</v>
       </c>
       <c r="AK2">
-        <v>-0.2659720798513568</v>
+        <v>-0.2729314431803194</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>-1.724050515261779</v>
+        <v>-4.433905595980529</v>
       </c>
     </row>
     <row r="3">
@@ -719,46 +719,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0449</v>
+        <v>-0.0126</v>
       </c>
       <c r="E3">
-        <v>0.296</v>
+        <v>-0.125</v>
       </c>
       <c r="G3">
-        <v>0.1131980335308206</v>
+        <v>0.1122022427178024</v>
       </c>
       <c r="H3">
-        <v>0.1131980335308206</v>
+        <v>0.1122022427178024</v>
       </c>
       <c r="I3">
-        <v>0.1116112223485937</v>
+        <v>0.04089725021203806</v>
       </c>
       <c r="J3">
-        <v>0.09268897528734124</v>
+        <v>0.03642925303739851</v>
       </c>
       <c r="K3">
-        <v>154.2</v>
+        <v>66.5</v>
       </c>
       <c r="L3">
-        <v>0.09718895751922349</v>
+        <v>0.04412447747329308</v>
       </c>
       <c r="M3">
-        <v>40.1</v>
+        <v>17.3</v>
       </c>
       <c r="N3">
-        <v>0.03398017117193459</v>
+        <v>0.01448304730012558</v>
       </c>
       <c r="O3">
-        <v>0.2600518806744488</v>
+        <v>0.2601503759398496</v>
       </c>
       <c r="P3">
-        <v>40.1</v>
+        <v>17.3</v>
       </c>
       <c r="Q3">
-        <v>0.03398017117193459</v>
+        <v>0.01448304730012558</v>
       </c>
       <c r="R3">
-        <v>0.2600518806744488</v>
+        <v>0.2601503759398496</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -767,55 +767,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>312.8</v>
+        <v>288.9</v>
       </c>
       <c r="V3">
-        <v>0.265062282857385</v>
+        <v>0.2418585182084554</v>
       </c>
       <c r="W3">
-        <v>0.1232712447038132</v>
+        <v>0.04498714652956298</v>
       </c>
       <c r="X3">
-        <v>0.08553709268922421</v>
+        <v>0.06980178383840767</v>
       </c>
       <c r="Y3">
-        <v>0.03773415201458902</v>
+        <v>-0.02481463730884469</v>
       </c>
       <c r="Z3">
-        <v>1.41681565117809</v>
+        <v>1.292026912011738</v>
       </c>
       <c r="AA3">
-        <v>0.1313231908787643</v>
+        <v>0.04706757530880423</v>
       </c>
       <c r="AB3">
-        <v>0.08544913453434848</v>
+        <v>0.06975761895035065</v>
       </c>
       <c r="AC3">
-        <v>0.04587405634441581</v>
+        <v>-0.02269004364154643</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>1.988173108606479</v>
+        <v>1.223771027187246</v>
       </c>
       <c r="AF3">
-        <v>1.988173108606479</v>
+        <v>1.223771027187246</v>
       </c>
       <c r="AG3">
-        <v>-310.8118268913935</v>
+        <v>-287.6762289728127</v>
       </c>
       <c r="AH3">
-        <v>0.001681916081926498</v>
+        <v>0.001023456300560091</v>
       </c>
       <c r="AI3">
-        <v>0.001342101378084053</v>
+        <v>0.0009112736356220706</v>
       </c>
       <c r="AJ3">
-        <v>-0.3575475158944347</v>
+        <v>-0.3172349889405226</v>
       </c>
       <c r="AK3">
-        <v>-0.2659720798513568</v>
+        <v>-0.2729314431803194</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>-1.724050515261779</v>
+        <v>-4.433905595980529</v>
       </c>
     </row>
   </sheetData>
